--- a/xlsx/罗纳德·费雪_intext.xlsx
+++ b/xlsx/罗纳德·费雪_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>政策_政策_管理_罗纳德·费雪</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%BE%B7%E9%9B%B7%E5%BE%97</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%A0%A1</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>劍橋大學</t>
+    <t>剑桥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E4%BC%BC%E7%84%B6%E4%BC%B0%E8%AE%A1</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E7%95%B0%E6%95%B8%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>變異數分析</t>
+    <t>变异数分析</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Analysis_of_variance</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>實驗設計</t>
+    <t>实验设计</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/design_of_experiments</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%99%AE%E5%88%A9%E7%8D%8E%E7%AB%A0</t>
   </si>
   <si>
-    <t>科普利獎章</t>
+    <t>科普利奖章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%B0%94%E6%96%87-%E5%8D%8E%E8%8E%B1%E5%A3%AB%E5%A5%96%E7%AB%A0</t>
@@ -119,25 +119,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>統計學</t>
+    <t>统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化生物學</t>
+    <t>演化生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>遺傳學</t>
+    <t>遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%A4%A7%E5%AD%A6%E5%AD%A6%E9%99%A2</t>
@@ -173,31 +173,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>英國皇家學會</t>
+    <t>英国皇家学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9F%B3%E6%A8%99</t>
   </si>
   <si>
-    <t>國際音標</t>
+    <t>国际音标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E7%B6%9C%E5%90%88%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>現代綜合理論</t>
+    <t>现代综合理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E6%96%AF%C2%B7%E5%93%88%E7%88%BE%E5%BE%B7</t>
   </si>
   <si>
-    <t>安德斯·哈爾德</t>
+    <t>安德斯·哈尔德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E9%81%93%E9%87%91%E6%96%AF</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%88%BE%E6%96%87</t>
   </si>
   <si>
-    <t>達爾文</t>
+    <t>达尔文</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/East_Finchley</t>
@@ -227,67 +227,67 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8A%9B</t>
   </si>
   <si>
-    <t>視力</t>
+    <t>视力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A6%BA</t>
   </si>
   <si>
-    <t>視覺</t>
+    <t>视觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E4%BD%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>幾何學</t>
+    <t>几何学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>演化論</t>
+    <t>演化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%8E%E5%AD%B8%E9%87%91</t>
   </si>
   <si>
-    <t>獎學金</t>
+    <t>奖学金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8%E5%B2%A1%E7%B6%AD%E7%88%BE%E8%88%87%E5%87%B1%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>劍橋大學岡維爾與凱斯學院</t>
+    <t>剑桥大学冈维尔与凯斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B</t>
   </si>
   <si>
-    <t>劍橋</t>
+    <t>剑桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E7%88%BE%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>孟德爾遺傳學</t>
+    <t>孟德尔遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88</t>
   </si>
   <si>
-    <t>生物統計</t>
+    <t>生物统计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E5%B0%94%E5%AE%9A%E5%BE%8B</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>達爾文主義</t>
+    <t>达尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E7%9A%AE%E5%B0%94%E9%80%8A</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E7%94%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>優生學</t>
+    <t>优生学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>人口問題</t>
+    <t>人口问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A2%85%E7%BA%B3%E5%BE%B7%C2%B7%E5%87%AF%E6%81%A9%E6%96%AF</t>
@@ -341,25 +341,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E9%AB%98%E7%88%BE%E7%99%BB</t>
   </si>
   <si>
-    <t>法蘭西斯·高爾登</t>
+    <t>法兰西斯·高尔登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E6%AA%A2%E6%9F%A5</t>
   </si>
   <si>
-    <t>健康檢查</t>
+    <t>健康检查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>公立學校</t>
+    <t>公立学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86</t>
@@ -377,19 +377,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>英國海軍</t>
+    <t>英国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%B9%E9%99%A3</t>
   </si>
   <si>
-    <t>拉丁方陣</t>
+    <t>拉丁方阵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%89%B9%E7%A6%8F%E5%BE%B7%E9%83%A1</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%AA%E7%B7%9A%E6%80%A7%E5%88%A4%E5%88%A5</t>
   </si>
   <si>
-    <t>費雪線性判別</t>
+    <t>费雪线性判别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B8%8C%E5%B0%94%E4%BF%A1%E6%81%AF</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%BB%A3%E7%BE%85%E7%B4%A0%E4%BC%AF%E7%88%B5%E7%B4%84%E7%BF%B0%C2%B7%E7%BE%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>第一代羅素伯爵約翰·羅素</t>
+    <t>第一代罗素伯爵约翰·罗素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%A0%BC%E8%90%8A%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>威廉·格萊斯頓</t>
+    <t>威廉·格莱斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%9B%96%E4%BC%8A</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%88%88%E7%94%B3%EF%BC%8C%E7%AC%AC%E4%B8%80%E4%BB%A3%E6%88%88%E7%94%B3%E5%AD%90%E7%88%B5</t>
   </si>
   <si>
-    <t>喬治·戈申，第一代戈申子爵</t>
+    <t>乔治·戈申，第一代戈申子爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%B4%9D%E5%BC%97%E9%87%8C%E5%A5%87</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E8%B5%AB%E8%83%A5%E9%BB%8E</t>
   </si>
   <si>
-    <t>安德魯·赫胥黎</t>
+    <t>安德鲁·赫胥黎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/W._V._D._Hodge</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%81%93%E5%A4%AB%C2%B7%E4%BD%A9%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>魯道夫·佩爾斯</t>
+    <t>鲁道夫·佩尔斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Robin_Hill_(biochemist)</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -809,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -821,13 +821,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E6%84%9B%E7%88%BE%E9%BB%98%C2%B7%E8%B2%BB%E9%9B%AA</t>
